--- a/data/trans_dic/P3A_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01630832373642116</v>
+        <v>0.01640852408797195</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0130357184231827</v>
+        <v>0.01180958665724265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007065400666878701</v>
+        <v>0.007223805253407847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006875955045309017</v>
+        <v>0.007185948737976795</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007539558107393889</v>
+        <v>0.007581974013145329</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006715806472607097</v>
+        <v>0.006913228210515771</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002531978757254356</v>
+        <v>0.002343716043568261</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003931703406339273</v>
+        <v>0.004034096422704839</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01384279496624835</v>
+        <v>0.01415952975782851</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01304203905434266</v>
+        <v>0.01333597242409263</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.007258598149476814</v>
+        <v>0.007222845006639033</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.009978981182339574</v>
+        <v>0.0104136527752712</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04541456048092164</v>
+        <v>0.0462207497702699</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04257285543735224</v>
+        <v>0.04287831428386874</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03231525444354508</v>
+        <v>0.03348469207263512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06480802364070935</v>
+        <v>0.07110736655739772</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02871760409268131</v>
+        <v>0.03056395328014745</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03370009318261849</v>
+        <v>0.03489377760719501</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02469165572416652</v>
+        <v>0.02290400942735023</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04012254734054665</v>
+        <v>0.03580168030545915</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0313539741799518</v>
+        <v>0.03273618726856461</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03262865324065611</v>
+        <v>0.03283163320353329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02355902725168915</v>
+        <v>0.02301663722026882</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04711795329273125</v>
+        <v>0.04560151999539356</v>
       </c>
     </row>
     <row r="7">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02019520193067062</v>
+        <v>0.02012017907621832</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009736475042147773</v>
+        <v>0.008506609322572082</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -856,28 +856,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009445799136308625</v>
+        <v>0.009446480931033573</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008776884297756367</v>
+        <v>0.00881493543899145</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005266142701885364</v>
+        <v>0.005453362016610405</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002133359270119474</v>
+        <v>0.002146656094382527</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01731628014412882</v>
+        <v>0.01783244751272724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01132461755356949</v>
+        <v>0.0111094934879599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00418523088644931</v>
+        <v>0.003837402455582002</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002166300243897268</v>
+        <v>0.002212523632003032</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04500547604405348</v>
+        <v>0.04529025545576847</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03097828384368938</v>
+        <v>0.03115284501125454</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01313507388736041</v>
+        <v>0.0143621421178475</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03962400436573012</v>
+        <v>0.03292697410944789</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0308742763740812</v>
+        <v>0.03117798136085805</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03048349946499624</v>
+        <v>0.03050349254935956</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02612092211718414</v>
+        <v>0.02777048091670802</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02400107572563133</v>
+        <v>0.02293774194337997</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03440445730330824</v>
+        <v>0.03470890256951525</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02691497790739786</v>
+        <v>0.02857086523015981</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01595432917684807</v>
+        <v>0.01622399003656525</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02241246019663497</v>
+        <v>0.02428592075610214</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03677856615387937</v>
+        <v>0.0370986536448709</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0138382322993207</v>
+        <v>0.01277378159288782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004303555250234587</v>
+        <v>0.004129847188646725</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008567554315481537</v>
+        <v>0.008388644360354974</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01306829100927497</v>
+        <v>0.01327432901528961</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01334238040507801</v>
+        <v>0.01361703768601477</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004461882881261151</v>
+        <v>0.003968443404005081</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005917508545530931</v>
+        <v>0.005990388475367351</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02730296329797432</v>
+        <v>0.02863704057933326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01629696066359546</v>
+        <v>0.01602175401705032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005706654197608878</v>
+        <v>0.005628553402480569</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.00942073260226407</v>
+        <v>0.009558660878246869</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07431906641369962</v>
+        <v>0.07484520302290511</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03948081174795121</v>
+        <v>0.03945765799974552</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01970579732488653</v>
+        <v>0.01936206630716238</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0318278752227582</v>
+        <v>0.0319509426446422</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03600904206156531</v>
+        <v>0.03709648700971967</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04118987166318998</v>
+        <v>0.03860148651412762</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02241355342510158</v>
+        <v>0.02417875147151542</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02156366363681646</v>
+        <v>0.0214719195817652</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04837706890152768</v>
+        <v>0.0508436465697071</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03488560676260594</v>
+        <v>0.03544702467485109</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01771514411927866</v>
+        <v>0.01707078025017155</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02238625612915598</v>
+        <v>0.02259673861555344</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01071402156581936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02965398931264162</v>
+        <v>0.02965398931264161</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01905438082523916</v>
@@ -1093,7 +1093,7 @@
         <v>0.01253742693736087</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02863564929817295</v>
+        <v>0.02863564929817294</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0290745009000977</v>
@@ -1105,7 +1105,7 @@
         <v>0.01162904636449943</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02913220632425168</v>
+        <v>0.02913220632425169</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0235203699777628</v>
+        <v>0.02343679318848538</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01592726261081234</v>
+        <v>0.01536901537523472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004520463175609479</v>
+        <v>0.00446172053746966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01834501826575747</v>
+        <v>0.01820571130651744</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007932291239269799</v>
+        <v>0.009226773120575137</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.014519988221289</v>
+        <v>0.01497066600742051</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004840454052678279</v>
+        <v>0.005980366411033701</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01979335749896894</v>
+        <v>0.01994947787708326</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01904238156462908</v>
+        <v>0.01967766784610716</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01806307499371404</v>
+        <v>0.01852843872029815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006846014534557045</v>
+        <v>0.006914613400498908</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02159294364447781</v>
+        <v>0.02111221074240301</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05925740692987433</v>
+        <v>0.0599231154282099</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04601734385557926</v>
+        <v>0.04241286143825746</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02418361775320985</v>
+        <v>0.02354151172697022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04666796155968168</v>
+        <v>0.04633696574770278</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03491287543834645</v>
+        <v>0.03314505600296386</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04632347943127885</v>
+        <v>0.04567759288363369</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02368302022767966</v>
+        <v>0.02419357698367963</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03901341570539366</v>
+        <v>0.0397267294099205</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04160678537322244</v>
+        <v>0.04117231199581825</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03957669882815487</v>
+        <v>0.03860829404642814</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01951776992851206</v>
+        <v>0.01953225268077222</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03819027824501411</v>
+        <v>0.03860190464346034</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01842575167123535</v>
+        <v>0.0190038683926847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0150340465900596</v>
+        <v>0.01502570318141671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02245484932718438</v>
+        <v>0.02212626903035792</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02071029417668215</v>
+        <v>0.02105484844067078</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009656426485179658</v>
+        <v>0.009217122629844655</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02662619309747924</v>
+        <v>0.02684176813035</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004597509298524488</v>
+        <v>0.004696394303980288</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01762796806204902</v>
+        <v>0.01693597666414946</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0178062086453872</v>
+        <v>0.01671612931264987</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02524102360464144</v>
+        <v>0.02443293942868602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01629131482171295</v>
+        <v>0.01652545333390773</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02084322118126113</v>
+        <v>0.02203426149600037</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06280467026875414</v>
+        <v>0.06203485379617941</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04820597749073231</v>
+        <v>0.05104706727708042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06592692986115117</v>
+        <v>0.06748759608808723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04956415359749278</v>
+        <v>0.04887486379670446</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03919112247878883</v>
+        <v>0.03936972085091327</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06910296115973925</v>
+        <v>0.0656426994063421</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02991907249506438</v>
+        <v>0.0273071739073728</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03763608792525661</v>
+        <v>0.03666275936673762</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04254469758833863</v>
+        <v>0.04160832832919728</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05275516457791886</v>
+        <v>0.05125747462071994</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03929714433997045</v>
+        <v>0.0401958112286523</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03981176860171759</v>
+        <v>0.03850438768108486</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.03950508595789515</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07727172580434241</v>
+        <v>0.0772717258043424</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04340175312460306</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01421690896417889</v>
+        <v>0.01434578416502804</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03619034428505701</v>
+        <v>0.03700689641767566</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00588939588578329</v>
+        <v>0.005881733639886181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04770525943425098</v>
+        <v>0.04871593631763157</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03527991934731133</v>
+        <v>0.03323480463505917</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0266144231919469</v>
+        <v>0.02555613019109145</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02269493394617315</v>
+        <v>0.02246902894317088</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05992100081071158</v>
+        <v>0.06055452128913329</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02952112982092697</v>
+        <v>0.0311379001487398</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03712122525200612</v>
+        <v>0.03642411666025595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01762444813793434</v>
+        <v>0.01798049822490319</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06003953247534512</v>
+        <v>0.0590551723002828</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05226076459829587</v>
+        <v>0.05681002089456843</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0941841013104241</v>
+        <v>0.0957847246230869</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03180703364716351</v>
+        <v>0.03326824864437987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09250411435233584</v>
+        <v>0.08934646716875459</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08225240191577715</v>
+        <v>0.07939833271625468</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07177620476952136</v>
+        <v>0.07364021773231447</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06765775368832581</v>
+        <v>0.06248400109223473</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09900060876539679</v>
+        <v>0.0965792352576378</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0612579783568129</v>
+        <v>0.06364081346701604</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07250585917101438</v>
+        <v>0.07249772660452679</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04544870523289984</v>
+        <v>0.04424769190461768</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08682471680745768</v>
+        <v>0.08711256323306062</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.1384076066808231</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2168522695376848</v>
+        <v>0.2168522695376849</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1043847789342007</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05945278625147096</v>
+        <v>0.05921471721571975</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1250711438369949</v>
+        <v>0.1302787206695938</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.104334232512365</v>
+        <v>0.1007110427640129</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1801599167138113</v>
+        <v>0.17990549570065</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07400329607652566</v>
+        <v>0.07341167440180267</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.152484050546538</v>
+        <v>0.1552340627717895</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1088442532848697</v>
+        <v>0.1083993527691729</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2513984108356168</v>
+        <v>0.2515566875293367</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07583026844775063</v>
+        <v>0.07485397201187798</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1562747057792319</v>
+        <v>0.1544682232018987</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.117112493407537</v>
+        <v>0.1153163191482436</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2319614680151136</v>
+        <v>0.2323304238012402</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1342905581381464</v>
+        <v>0.1358896351184123</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2203329575386984</v>
+        <v>0.2258522428061006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1793628401884071</v>
+        <v>0.1828777919273852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2538307272704415</v>
+        <v>0.2587025658203007</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1472254470912226</v>
+        <v>0.1405676422253741</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2334361385437745</v>
+        <v>0.2413063388340637</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1912529355369182</v>
+        <v>0.191166551674919</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.31131206177788</v>
+        <v>0.3138963869974539</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1251755601988844</v>
+        <v>0.1259328301030185</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2169239796402198</v>
+        <v>0.2167129466734459</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1745018982459373</v>
+        <v>0.175464742729136</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2817524564565501</v>
+        <v>0.282408683562656</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.02426891732838432</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.04570643588270919</v>
+        <v>0.0457064358827092</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.03149511080554573</v>
@@ -1649,7 +1649,7 @@
         <v>0.02730344537369913</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.05225792688475092</v>
+        <v>0.05225792688475093</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03373922073660175</v>
+        <v>0.03357690454450727</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03210093829164247</v>
+        <v>0.0321006012277919</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01911958379310378</v>
+        <v>0.01901544782454449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03897463266911583</v>
+        <v>0.03904740531888323</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02607260104770297</v>
+        <v>0.02626150237286513</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03941228291114478</v>
+        <v>0.03797890219518407</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02453076623677669</v>
+        <v>0.02455421156159478</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05224539931051662</v>
+        <v>0.05239625899166379</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03112132117160688</v>
+        <v>0.03177189526909677</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03720784673973179</v>
+        <v>0.03749390034319158</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02340260379666241</v>
+        <v>0.02328922408246972</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04797310342621788</v>
+        <v>0.04755884274873769</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04749003906989657</v>
+        <v>0.04808914735968157</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04538938216964468</v>
+        <v>0.04554216572735008</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02995826607784161</v>
+        <v>0.02973837431043755</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05357200172962805</v>
+        <v>0.05368903033136836</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03817697637882118</v>
+        <v>0.03850361494860776</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05357967054583497</v>
+        <v>0.05322361371421071</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0375594011003101</v>
+        <v>0.03701468724247858</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06448458174256537</v>
+        <v>0.06525699361820327</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04036551442742366</v>
+        <v>0.0406845147327413</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04799993880928343</v>
+        <v>0.04739734904559726</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03179842274910863</v>
+        <v>0.0312266099719661</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05710912335292595</v>
+        <v>0.05702969311273928</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8057</v>
+        <v>8107</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5920</v>
+        <v>5363</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2951</v>
+        <v>3017</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2804</v>
+        <v>2930</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3518</v>
+        <v>3538</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2889</v>
+        <v>2974</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1002</v>
+        <v>928</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1425</v>
+        <v>1462</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13299</v>
+        <v>13603</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11534</v>
+        <v>11794</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5904</v>
+        <v>5875</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7687</v>
+        <v>8022</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22438</v>
+        <v>22836</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19334</v>
+        <v>19473</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13496</v>
+        <v>13984</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26428</v>
+        <v>28997</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13400</v>
+        <v>14262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14499</v>
+        <v>15012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9772</v>
+        <v>9064</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14545</v>
+        <v>12979</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30121</v>
+        <v>31449</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>28856</v>
+        <v>29036</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19163</v>
+        <v>18721</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36295</v>
+        <v>35127</v>
       </c>
     </row>
     <row r="8">
@@ -2191,10 +2191,10 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14853</v>
+        <v>14798</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6690</v>
+        <v>5845</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -2206,25 +2206,25 @@
         <v>5883</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5356</v>
+        <v>5379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2963</v>
+        <v>3068</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23521</v>
+        <v>24222</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>14692</v>
+        <v>14413</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4826</v>
+        <v>4425</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2120</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33101</v>
+        <v>33310</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21285</v>
+        <v>21405</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7756</v>
+        <v>8481</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18896</v>
+        <v>15703</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19229</v>
+        <v>19418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18603</v>
+        <v>18615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14696</v>
+        <v>15624</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12042</v>
+        <v>11509</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>46732</v>
+        <v>47145</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>34918</v>
+        <v>37066</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>18397</v>
+        <v>18708</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>21933</v>
+        <v>23767</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23457</v>
+        <v>23661</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9436</v>
+        <v>8710</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2868</v>
+        <v>2752</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5319</v>
+        <v>5208</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9014</v>
+        <v>9156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9471</v>
+        <v>9666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2947</v>
+        <v>2621</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3688</v>
+        <v>3733</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>36246</v>
+        <v>38017</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22681</v>
+        <v>22298</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7572</v>
+        <v>7468</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>11720</v>
+        <v>11891</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47400</v>
+        <v>47735</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26921</v>
+        <v>26905</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13132</v>
+        <v>12903</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19760</v>
+        <v>19836</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24837</v>
+        <v>25587</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29239</v>
+        <v>27401</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14803</v>
+        <v>15969</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13438</v>
+        <v>13381</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>64222</v>
+        <v>67496</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>48551</v>
+        <v>49332</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23505</v>
+        <v>22650</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>27849</v>
+        <v>28111</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12211</v>
+        <v>12167</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9789</v>
+        <v>9446</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2908</v>
+        <v>2870</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12853</v>
+        <v>12755</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4090</v>
+        <v>4758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8947</v>
+        <v>9225</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3137</v>
+        <v>3875</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14572</v>
+        <v>14687</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19705</v>
+        <v>20362</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>22232</v>
+        <v>22805</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8841</v>
+        <v>8929</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>31025</v>
+        <v>30335</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30763</v>
+        <v>31109</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28283</v>
+        <v>26068</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15558</v>
+        <v>15145</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32696</v>
+        <v>32464</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18003</v>
+        <v>17091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28544</v>
+        <v>28146</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15347</v>
+        <v>15678</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28722</v>
+        <v>29247</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43054</v>
+        <v>42605</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48712</v>
+        <v>47520</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>25205</v>
+        <v>25223</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>54873</v>
+        <v>55464</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7125</v>
+        <v>7349</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6440</v>
+        <v>6437</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10732</v>
+        <v>10575</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12620</v>
+        <v>12830</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3891</v>
+        <v>3714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11923</v>
+        <v>12020</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2279</v>
+        <v>2328</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10733</v>
+        <v>10312</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14061</v>
+        <v>13200</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>22115</v>
+        <v>21407</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15862</v>
+        <v>16090</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>25391</v>
+        <v>26842</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24287</v>
+        <v>23989</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20650</v>
+        <v>21867</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31508</v>
+        <v>32254</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30202</v>
+        <v>29782</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15793</v>
+        <v>15865</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>30944</v>
+        <v>29395</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14832</v>
+        <v>13537</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>22915</v>
+        <v>22322</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33597</v>
+        <v>32857</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>46222</v>
+        <v>44910</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>38262</v>
+        <v>39137</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>48499</v>
+        <v>46906</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4160</v>
+        <v>4197</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11211</v>
+        <v>11464</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>19368</v>
+        <v>19778</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12099</v>
+        <v>11397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9395</v>
+        <v>9021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>8552</v>
+        <v>8467</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>26281</v>
+        <v>26559</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>18761</v>
+        <v>19789</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>24603</v>
+        <v>24141</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>12515</v>
+        <v>12768</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>50708</v>
+        <v>49877</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15291</v>
+        <v>16622</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29177</v>
+        <v>29673</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10601</v>
+        <v>11088</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>37555</v>
+        <v>36273</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>28207</v>
+        <v>27228</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>25337</v>
+        <v>25995</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25494</v>
+        <v>23544</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43421</v>
+        <v>42359</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>38930</v>
+        <v>40445</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>48056</v>
+        <v>48050</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>32273</v>
+        <v>31420</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>73331</v>
+        <v>73574</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12478</v>
+        <v>12428</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>31249</v>
+        <v>32550</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26737</v>
+        <v>25808</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>55885</v>
+        <v>55806</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>24710</v>
+        <v>24513</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>59313</v>
+        <v>60383</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>43556</v>
+        <v>43378</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>116802</v>
+        <v>116876</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>41236</v>
+        <v>40705</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>99833</v>
+        <v>98679</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>76876</v>
+        <v>75697</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>179725</v>
+        <v>180011</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28185</v>
+        <v>28521</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>55050</v>
+        <v>56429</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>45964</v>
+        <v>46865</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78738</v>
+        <v>80249</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>49160</v>
+        <v>46937</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>90802</v>
+        <v>93863</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>76533</v>
+        <v>76499</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>144638</v>
+        <v>145839</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>68069</v>
+        <v>68481</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>138578</v>
+        <v>138443</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>114548</v>
+        <v>115180</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>218304</v>
+        <v>218812</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>110518</v>
+        <v>109987</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>109969</v>
+        <v>109968</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>64726</v>
+        <v>64373</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>137646</v>
+        <v>137903</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>87986</v>
+        <v>88623</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>140162</v>
+        <v>135065</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>86829</v>
+        <v>86912</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>195174</v>
+        <v>195737</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>206966</v>
+        <v>211293</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>259786</v>
+        <v>261783</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>162060</v>
+        <v>161275</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>348639</v>
+        <v>345628</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>155561</v>
+        <v>157524</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>155491</v>
+        <v>156015</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>101418</v>
+        <v>100674</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>189199</v>
+        <v>189612</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>128834</v>
+        <v>129936</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>190546</v>
+        <v>189280</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>132945</v>
+        <v>131016</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>240896</v>
+        <v>243781</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>268443</v>
+        <v>270565</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>335137</v>
+        <v>330930</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>220201</v>
+        <v>216241</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>415034</v>
+        <v>414456</v>
       </c>
     </row>
     <row r="36">
